--- a/NESC_Review/LMEEM_to_DSNE_Milestone_Schedule.xlsx
+++ b/NESC_Review/LMEEM_to_DSNE_Milestone_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\LunarEjecta\NESC_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A7F5B8-8B37-42B0-BE8D-449CC014DAE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A69665D-D601-4CC5-B788-2DA3D74D2397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0BB9E122-FA3A-4D0A-ADBB-862D44160A3E}"/>
   </bookViews>
@@ -168,10 +168,10 @@
     <t>Internal EV44 final check on DSNE env</t>
   </si>
   <si>
-    <t>Jim Hyde contacted us 3/9/2022</t>
-  </si>
-  <si>
     <t>Generate DSNE env for HVIT</t>
+  </si>
+  <si>
+    <t>Jim Hyde contacted us 3/9/2022, send in form of Memo (Emily/Barry ok, then Adrean for cover letter)</t>
   </si>
 </sst>
 </file>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82E2BA9-70A0-424E-BD8A-3CC5BDFC8C01}">
   <dimension ref="B1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="14">
         <v>44645</v>
@@ -1042,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
